--- a/Input/DBH_model.xlsx
+++ b/Input/DBH_model.xlsx
@@ -73,6 +73,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -164,7 +165,7 @@
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.46"/>
   </cols>
